--- a/www/Data_en.xlsx
+++ b/www/Data_en.xlsx
@@ -155,9 +155,6 @@
     <t>Steve Barret</t>
   </si>
   <si>
-    <t>Xiao Ni</t>
-  </si>
-  <si>
     <t>Sam Trever</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>2018-10-21</t>
+  </si>
+  <si>
+    <t>Maria Rio</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,37 +546,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
